--- a/Supporting_files/model_results.xlsx
+++ b/Supporting_files/model_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesher/Desktop/Master data science UvA/Semester 2/Thesis/AcExSy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesher/Desktop/Master data science UvA/Semester 2/Thesis/AcExSy/Supporting_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A183069-F086-524C-A9EC-D91BA0447941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A859CA-6FE0-6D48-A1D5-76240A6101C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="18840" xr2:uid="{28180F11-F105-9348-A808-DF2D86ED284E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30400" windowHeight="18840" xr2:uid="{28180F11-F105-9348-A808-DF2D86ED284E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>ScienceWise</t>
+  </si>
+  <si>
+    <t>batch_size=80, output_value=None</t>
+  </si>
+  <si>
+    <t>batch_size=50</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,6 +756,156 @@
         <v>9.3851000000000004E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>44683</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12">
+        <v>5.115740740740741E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.62673000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1266</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.53119000000000005</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.89417000000000002</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.79244000000000003</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>8.4154999999999994E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>44683</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.1041666666666666E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.62673000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1266</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.91774999999999995</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.53119000000000005</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.89417000000000002</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.79244000000000003</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>8.4103999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>44683</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
+        <v>5.1041666666666666E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1266</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.62673000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1266</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.91774999999999995</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.53119000000000005</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.89417000000000002</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.79244000000000003</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9.0453000000000006E-2</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G12" s="11"/>
     </row>

--- a/Supporting_files/model_results.xlsx
+++ b/Supporting_files/model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesher/Desktop/Master data science UvA/Semester 2/Thesis/AcExSy/Supporting_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A859CA-6FE0-6D48-A1D5-76240A6101C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F21A4D-04EB-044A-9729-CDF748EFB97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30400" windowHeight="18840" xr2:uid="{28180F11-F105-9348-A808-DF2D86ED284E}"/>
+    <workbookView xWindow="38380" yWindow="2940" windowWidth="30400" windowHeight="18680" xr2:uid="{28180F11-F105-9348-A808-DF2D86ED284E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>batch_size=50</t>
+  </si>
+  <si>
+    <t>distiluse-base-multilingual-cased-v1</t>
+  </si>
+  <si>
+    <t>"sbert","distiluse-base-multilingual-cased-v1", "simple"</t>
+  </si>
+  <si>
+    <t>0.62227</t>
   </si>
 </sst>
 </file>
@@ -587,9 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE005C2-C07B-9640-9058-F110DD623AA2}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A6"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,6 +915,56 @@
         <v>9.0453000000000006E-2</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>44685</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.5069444444444443E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1257</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1257</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.92318</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.51998</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.51383999999999996</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.90232000000000001</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.75921000000000005</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0.74317</v>
+      </c>
+      <c r="O7" s="2">
+        <v>809.53</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.24776599999999999</v>
+      </c>
+    </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G12" s="11"/>
     </row>
